--- a/doc/11. 도메인 정의서.xlsx
+++ b/doc/11. 도메인 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qkdlf\Project\front-end\movie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F63E04-E703-49DC-83EC-C214E7E4843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E82609-AAC7-4165-95A2-D7415C595344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" activeTab="4" xr2:uid="{2CD724CB-B3F2-47D8-8DA7-703D27234E65}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="218">
   <si>
     <t>속성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -907,6 +907,10 @@
   </si>
   <si>
     <t>예매개수</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6650,7 +6654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9922E6B1-DFF5-4941-B2FA-1DCAD6528C71}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6736,7 +6742,7 @@
         <v>162</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>174</v>
@@ -6894,7 +6900,7 @@
         <v>179</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="3"/>
